--- a/Montblanc/v2/Montblanc_v2_best_trade_params.xlsx
+++ b/Montblanc/v2/Montblanc_v2_best_trade_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docs9\develop\github\TubeSound\Sparkle2\Montblanc\v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7474E2-0780-4DE4-8E25-A562B8786020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC80763A-A1B9-4504-A74F-BF3BA1CD8838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="8055" windowWidth="37785" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="32">
   <si>
     <t>symbol</t>
   </si>
@@ -127,11 +127,19 @@
     <t>USDJPY</t>
   </si>
   <si>
-    <t>sl 1-&gt;0.2</t>
+    <t>sl: 15→5</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>sl: 0.2</t>
+    <t>sl 1-&gt;0.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sl_mode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>atr</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -839,15 +847,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9120BB8A-A03F-447A-A398-58F29CFC0340}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="4" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -858,58 +866,61 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -919,64 +930,67 @@
       <c r="C2" s="2">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2">
         <v>40</v>
       </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
       <c r="F2" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2">
         <v>90</v>
       </c>
-      <c r="H2" s="2">
-        <v>2</v>
-      </c>
       <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
         <v>15</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>3.5</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="5">
         <v>100</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2">
         <v>4</v>
       </c>
-      <c r="N2" s="2">
-        <v>0.01</v>
-      </c>
       <c r="O2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P2" s="2">
         <v>20095</v>
       </c>
-      <c r="P2" s="2">
+      <c r="Q2" s="2">
         <v>0.34511072406071158</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="R2" s="2">
         <v>2.082369743717341</v>
       </c>
-      <c r="R2" s="2">
+      <c r="S2" s="2">
         <v>-5</v>
       </c>
-      <c r="S2" s="2">
+      <c r="T2" s="2">
         <v>-6194</v>
       </c>
-      <c r="T2" s="2">
+      <c r="U2" s="2">
         <v>41845.219999999979</v>
       </c>
-      <c r="U2" s="2">
-        <f>S2/T2</f>
+      <c r="V2" s="2">
+        <f>T2/U2</f>
         <v>-0.14802168563099927</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -986,64 +1000,67 @@
       <c r="C3" s="2">
         <v>34</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2">
         <v>25</v>
       </c>
-      <c r="E3" s="2">
-        <v>30</v>
-      </c>
       <c r="F3" s="2">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2">
         <v>25</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>120</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>1.5</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>15</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>3</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>50</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2">
         <v>5</v>
       </c>
-      <c r="N3" s="2">
-        <v>0.01</v>
-      </c>
       <c r="O3" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P3" s="2">
         <v>22899</v>
       </c>
-      <c r="P3" s="2">
+      <c r="Q3" s="2">
         <v>0.41866457050526218</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="R3" s="2">
         <v>1.3930839774662589</v>
       </c>
-      <c r="R3" s="2">
+      <c r="S3" s="2">
         <v>-2</v>
       </c>
-      <c r="S3" s="2">
+      <c r="T3" s="2">
         <v>-3011</v>
       </c>
-      <c r="T3" s="2">
+      <c r="U3" s="2">
         <v>31900.22999999993</v>
       </c>
-      <c r="U3" s="2">
-        <f t="shared" ref="U3" si="0">S3/T3</f>
+      <c r="V3" s="2">
+        <f t="shared" ref="V3" si="0">T3/U3</f>
         <v>-9.4388034192857129E-2</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1053,64 +1070,67 @@
       <c r="C4" s="2">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2">
         <v>25</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>45</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>50</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>60</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>2.5</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>5</v>
       </c>
-      <c r="J4" s="2">
-        <v>2</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="5">
         <v>100</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2">
         <v>5</v>
       </c>
-      <c r="N4" s="2">
-        <v>0.01</v>
-      </c>
       <c r="O4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P4" s="2">
         <v>26416</v>
       </c>
-      <c r="P4" s="2">
+      <c r="Q4" s="2">
         <v>0.42004845548152642</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <v>2.598996820109035</v>
       </c>
-      <c r="R4" s="2">
+      <c r="S4" s="2">
         <v>-3.950000000000728</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="2">
         <v>-10932.5</v>
       </c>
-      <c r="T4" s="2">
+      <c r="U4" s="2">
         <v>68655.100000000122</v>
       </c>
-      <c r="U4" s="2">
-        <f>S4/T4</f>
+      <c r="V4" s="2">
+        <f>T4/U4</f>
         <v>-0.15923798814654674</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1120,64 +1140,67 @@
       <c r="C5" s="2">
         <v>35</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2">
         <v>60</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>45</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>25</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>120</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>3</v>
       </c>
-      <c r="I5" s="2">
-        <v>10</v>
-      </c>
       <c r="J5" s="2">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2">
         <v>3</v>
       </c>
-      <c r="K5" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2">
-        <v>2</v>
-      </c>
+      <c r="L5" s="5">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="O5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P5" s="2">
         <v>14594</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>0.41427984103056048</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>0.31496231327942892</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2">
         <v>-0.37000000000011818</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>-383.20000000000852</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U5" s="2">
         <v>4596.5599999999904</v>
       </c>
-      <c r="U5" s="2">
-        <f>S5/T5</f>
+      <c r="V5" s="2">
+        <f>T5/U5</f>
         <v>-8.3366691612860339E-2</v>
       </c>
-      <c r="V5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1187,61 +1210,64 @@
       <c r="C6" s="2">
         <v>26</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2">
         <v>40</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>50</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>25</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>120</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>3.5</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>5</v>
       </c>
-      <c r="J6" s="2">
-        <v>2</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2">
-        <v>10</v>
-      </c>
+      <c r="K6" s="2">
+        <v>2</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="M6" s="2"/>
       <c r="N6" s="2">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="O6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P6" s="2">
         <v>9027</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>0.43037554004652712</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>1.8619585687382239E-2</v>
       </c>
-      <c r="R6" s="2">
+      <c r="S6" s="2">
         <v>-7.9999999999955662E-3</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="2">
         <v>-9.980999999999824</v>
       </c>
-      <c r="T6" s="2">
+      <c r="U6" s="2">
         <v>168.0789999999995</v>
       </c>
-      <c r="U6" s="2">
-        <f>S6/T6</f>
+      <c r="V6" s="2">
+        <f>T6/U6</f>
         <v>-5.9382790235543131E-2</v>
       </c>
-      <c r="V6" t="s">
-        <v>28</v>
+      <c r="W6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
